--- a/grammar_1.xlsx
+++ b/grammar_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ar4RahAw0bm/JcOUZ1EA5hVdOzZkJ1eK9sDxeVemovItpXNnkQ5dOzrs/SoPkRbYsljE/Br5KgXehW1c24DL9A==" workbookSaltValue="pa38aL2cF437Hs26E/4G6g==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2pCPzVcmtZ+cMWbjOIMrJ9PRwA/2dNyoFPvy+WR3hL9xBGQ+WJlR9f2J7cZu0oWpzcTJx/g09Rq8ohrqq1dO9A==" workbookSaltValue="Ds5lEsiamD8+Xv6FC6yI5g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -864,10 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When does the bust start? (at eight)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It does start at eight.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,6 +905,10 @@
   </si>
   <si>
     <t>a_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When does the bus start? (at eight)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1267,28 +1267,28 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
         <v>216</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>217</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>218</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>219</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>220</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>221</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>222</v>
-      </c>
-      <c r="J1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2867,22 +2867,22 @@
         <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
         <v>81</v>
       </c>
       <c r="E51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" t="s">
         <v>213</v>
-      </c>
-      <c r="F51" t="s">
-        <v>214</v>
       </c>
       <c r="G51" t="s">
         <v>165</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I51" t="s">
         <v>165</v>
@@ -2902,7 +2902,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/grammar_1.xlsx
+++ b/grammar_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2pCPzVcmtZ+cMWbjOIMrJ9PRwA/2dNyoFPvy+WR3hL9xBGQ+WJlR9f2J7cZu0oWpzcTJx/g09Rq8ohrqq1dO9A==" workbookSaltValue="Ds5lEsiamD8+Xv6FC6yI5g==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+i92Tmi9meK9HVfg3/cQO2zzK66cscFZTF2/a15dGdFpsbgZenpRIdZ4BOdntS/TTHmV8ozuiYvIvxEpmsQMQg==" workbookSaltValue="Htqx4DNWkiBIO5fvFp7JxQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="234">
   <si>
     <t>head</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -909,6 +909,46 @@
   </si>
   <si>
     <t>When does the bus start? (at eight)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사의 복수형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물질명사와 단위명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지시대명사와 지시형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인칭대명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be동사의 평사문, 부정문, 의문문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1299,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1290,8 +1330,11 @@
       <c r="J1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1322,8 +1365,11 @@
       <c r="J2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1354,8 +1400,11 @@
       <c r="J3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1386,8 +1435,11 @@
       <c r="J4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1418,8 +1470,11 @@
       <c r="J5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1450,8 +1505,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1482,8 +1540,11 @@
       <c r="J7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1514,8 +1575,11 @@
       <c r="J8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1546,8 +1610,11 @@
       <c r="J9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1578,8 +1645,11 @@
       <c r="J10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1610,8 +1680,11 @@
       <c r="J11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1642,8 +1715,11 @@
       <c r="J12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1674,8 +1750,11 @@
       <c r="J13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1706,8 +1785,11 @@
       <c r="J14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1738,8 +1820,11 @@
       <c r="J15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1770,8 +1855,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1802,8 +1890,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1834,8 +1925,11 @@
       <c r="J18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1866,8 +1960,11 @@
       <c r="J19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1898,8 +1995,11 @@
       <c r="J20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1930,8 +2030,11 @@
       <c r="J21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1962,8 +2065,11 @@
       <c r="J22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1994,8 +2100,11 @@
       <c r="J23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2026,8 +2135,11 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2058,8 +2170,11 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2090,8 +2205,11 @@
       <c r="J26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2122,8 +2240,11 @@
       <c r="J27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2154,8 +2275,11 @@
       <c r="J28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2186,8 +2310,11 @@
       <c r="J29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2218,8 +2345,11 @@
       <c r="J30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2250,8 +2380,11 @@
       <c r="J31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2282,8 +2415,11 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2314,8 +2450,11 @@
       <c r="J33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2346,8 +2485,11 @@
       <c r="J34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2378,8 +2520,11 @@
       <c r="J35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2410,8 +2555,11 @@
       <c r="J36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2442,8 +2590,11 @@
       <c r="J37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2474,8 +2625,11 @@
       <c r="J38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2506,8 +2660,11 @@
       <c r="J39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2538,8 +2695,11 @@
       <c r="J40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2570,8 +2730,11 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2602,8 +2765,11 @@
       <c r="J42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2634,8 +2800,11 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2666,8 +2835,11 @@
       <c r="J44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2698,8 +2870,11 @@
       <c r="J45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2730,8 +2905,11 @@
       <c r="J46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2762,8 +2940,11 @@
       <c r="J47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2794,8 +2975,11 @@
       <c r="J48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2826,8 +3010,11 @@
       <c r="J49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2858,8 +3045,11 @@
       <c r="J50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2889,6 +3079,9 @@
       </c>
       <c r="J51">
         <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +3095,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
